--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +438,121 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_NUMBER</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INNING_NUMBER</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_DATE</t>
+          <t>BATTING_HAND</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_INNING</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OPPONENT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VENUE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DISMISSAL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RUNS_SCORED</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BALLS_FACED</t>
+          <t>BOWL_STYLE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>3932</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thomas William Maxwell Latham</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>INNING_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_DATE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_INNING</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OPPONENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VENUE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DISMISSAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RUNS_SCORED</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BALLS_FACED</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3366</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3368</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3370</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3576</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3578</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3579</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1271,7 +1336,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1435,7 +1499,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3717</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1487,7 +1551,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1539,7 +1603,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1643,7 +1707,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1695,7 +1759,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3729</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1747,7 +1811,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1851,7 +1915,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3823</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1903,7 +1967,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3824</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1955,7 +2019,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3825</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2007,7 +2071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2059,7 +2123,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2111,7 +2175,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2163,7 +2227,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2215,7 +2279,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2267,7 +2331,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2319,7 +2383,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2371,7 +2435,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2423,7 +2487,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2475,7 +2539,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2527,7 +2591,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2579,7 +2643,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2631,7 +2695,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2683,7 +2747,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2735,7 +2799,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2787,7 +2851,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2839,7 +2903,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2891,7 +2955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2943,7 +3007,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2995,7 +3059,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3047,7 +3111,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3099,7 +3163,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3151,7 +3215,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3203,7 +3267,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3255,7 +3319,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3307,7 +3371,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4023</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3359,7 +3423,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3411,7 +3475,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3463,7 +3527,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3515,7 +3579,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3567,7 +3631,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3619,7 +3683,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3671,7 +3735,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3723,7 +3787,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3775,7 +3839,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3827,7 +3891,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3867,7 +3931,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -3875,7 +3938,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3927,7 +3990,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3979,7 +4042,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4031,7 +4094,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4083,7 +4146,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4135,7 +4198,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4187,7 +4250,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4239,7 +4302,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4291,7 +4354,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4343,7 +4406,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4395,7 +4458,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4435,7 +4498,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -4443,7 +4505,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4495,7 +4557,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4547,7 +4609,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4599,7 +4661,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4639,7 +4701,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -4647,7 +4708,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4699,7 +4760,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4739,7 +4800,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -4747,7 +4807,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4787,7 +4847,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -4795,7 +4854,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4847,7 +4906,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4887,7 +4946,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -4895,7 +4953,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4947,7 +5005,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4999,7 +5057,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5051,7 +5109,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5103,7 +5161,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5155,7 +5213,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5207,7 +5265,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5259,7 +5317,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5311,7 +5369,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5363,7 +5421,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5415,7 +5473,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5467,7 +5525,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5519,7 +5577,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5571,7 +5629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5611,7 +5669,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -5619,7 +5676,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5671,7 +5728,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5723,7 +5780,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5775,7 +5832,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
+          <t>4563</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5827,7 +5884,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5879,7 +5936,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5931,7 +5988,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5983,7 +6040,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6035,7 +6092,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6087,7 +6144,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6139,7 +6196,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6191,7 +6248,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6243,7 +6300,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6295,7 +6352,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6347,7 +6404,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6399,7 +6456,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6439,7 +6496,6 @@
           <t>116</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -6447,7 +6503,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6487,7 +6543,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -6495,7 +6550,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6547,7 +6602,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6599,7 +6654,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6651,7 +6706,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6703,7 +6758,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6755,7 +6810,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6807,7 +6862,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6859,7 +6914,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4735</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6890,6 +6945,587 @@
       <c r="J125" t="inlineStr">
         <is>
           <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Seddon Park</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>b D Shanaka</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.54%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.11%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.93%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F117" t="inlineStr">

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1336,6 +1335,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -3931,6 +3931,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -4498,6 +4499,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -4701,6 +4703,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -4800,6 +4803,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -4847,6 +4851,7 @@
           <t>84</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -4946,6 +4951,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -5669,6 +5675,7 @@
           <t>100</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -6496,6 +6503,7 @@
           <t>116</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -6543,6 +6551,7 @@
           <t>117</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -6997,535 +7006,6 @@
       <c r="J126" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7.54%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.11%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>8.33%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.32%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.13%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>46.93%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.77%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.93%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.82%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3932.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1335,7 +1336,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -3931,7 +3931,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -4499,7 +4498,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -4703,7 +4701,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -4803,7 +4800,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -4851,7 +4847,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -4951,7 +4946,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -5675,7 +5669,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>20/03/2021</t>
@@ -6503,7 +6496,6 @@
           <t>116</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -6551,7 +6543,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -7006,6 +6997,3065 @@
       <c r="J126" t="inlineStr">
         <is>
           <t>16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3370</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3424</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3427</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.82%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3429</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3430</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3570</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3573</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.01%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3576</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.77%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.36%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3579</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3685</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3686</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3713</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3717</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15.67%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3723</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3729</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3743</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10.80%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3824</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>46.61%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3825</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3826</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.92%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.43%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>9.42%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14.41%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>19.01%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.40%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15.00%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.18%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3971</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4023</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>5.19%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4024</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.93%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.23%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>19.64%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>6.15%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4104</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>13.62%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4137</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.94%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.56%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>7.01%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.99%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>17.05%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>17.88%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>7.51%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>10.67%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.32%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>5.66%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>53.03%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>7.54%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>25.11%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>8.33%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>46.93%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.77%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
